--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\マイドライブ（e.togashi@gmail.com）\研究\ロガー開発3\12.vers_2.6.0\発注データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F107B-243A-4B5D-9EFC-2DB110B6E842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E70487-5F20-4ABA-BDFB-A3F38ABF43F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="18270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name=" BOM Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' BOM Template'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' BOM Template'!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -37,10 +38,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Manufacturer Part Number or Seeed SKU</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -160,26 +157,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>HT7750 (SOT23-5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ATmega328P-MU</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microchip.com/en-us/product/ATmega328</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ATmel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -222,65 +203,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Seed cost $/piece</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/murata-electronics/GRM188R60J476ME15D/5877410?s=N4IgTCBcDaIOICUCyBGAHGhA2ADAKQBYB2LJAURQFYAREAXQF8g</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-16076/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-13374/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/epson/FC-12M-32-7680KA-A5/5209189</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>FC-12M 32.7680KA-A5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gI-11809/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OptoSupply</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSHR1608C1A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>東光株式会社</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>D53LC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-12566/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-14977/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFE322512F-100M</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://akizukidenshi.com/catalog/g/gI-04697/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -289,26 +215,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Chang Enn Co., Ltd.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://akizukidenshi.com/catalog/g/gC-03870/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Neltron Industrial Co., Ltd.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://akizukidenshi.com/catalog/g/gP-00673</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/ja/products/detail/vishay-dale/TFPT1206L1002FV/1427100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.digikey.jp/ja/products/detail/yageo/RC0603FR-072R2L/2827592</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -321,34 +235,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.digikey.jp/ja/products/detail/yageo/RC0603FR-071K5L/726864</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>XIAMEN JINBEILI ELECTRONICS CO.,LTD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://akizukidenshi.com/catalog/g/gP-15707</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://akizukidenshi.com/catalog/g/gP-14888/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Zhejiang Jianfu Electronics Co., Ltd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>AHT20</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -357,10 +255,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Shenzhen electronics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TF-01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -377,10 +271,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gI-13355/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RC0603FR-072R2L (2.2)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -397,26 +287,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>GRM188R60J476ME15D (47uF)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM188F11H104ZA01 (0.1uF)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JST</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://akizukidenshi.com/catalog/g/gC-17160/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>B3B-PH-K-S</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -433,38 +307,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.digikey.jp/ja/products/detail/yageo/AC0603FR-0710KL/2827814</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/ja/products/detail/panasonic-electronic-components/EXB-28V103JX/256299</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Panasonic</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-04304/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVZ3A102C01 (1k)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EXB-28V103JX (10k)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/ja/products/detail/vishay-semiconductor-opto-division/VCNL4030X01-GS08/9742568</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>VCNL4030X01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -473,55 +327,265 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/ja/products/detail/yageo/RE0603FRE072K49L/5923339</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE0603FRE072K49L (2.5k)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/ixys-integrated-circuits-division/CPC1019NTR/2690693</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPC1019N</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/micro-commercial-co/B5818LWS-TP/7652331</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B5818WS-TP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/onsemi/MMBT5550LT1G/919614</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>MMBT5550LT1G</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋月</t>
-    </r>
+    <t>Manufacturer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/panasonic-electronic-components/EXB-28V103JX/256299?s=N4IgTCBcDaIKIA0BCBaMAOAagRgAwGYApBEAXQF8g</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/taiyo-yuden/LBR2012T100K/1788937</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chip1stop.com/view/searchResult/SearchResultTop?keyword=FC-12M&amp;partSameFlg=false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVR32DB32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microchip.com/en-us/product/AVR64DB32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME2108C50M5G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC33X-1-102E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bourns</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/murata-electronics/A915BY-470M-P3/16033688?s=N4IgTCBcDaIIIE4CMBWAQgTQLQBYDsADALIgC6AvkA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A915BY-470M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/murata-electronics/GCJ188R71H104KA12D/2783803</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/micro-commercial-co/B5817WS-TP/2213553</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5817WS-TP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvatek Corporation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/c/?q=TFPT1206L1002FV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/c/sensors/proximity-sensors/?q=VCNL4030X01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/c/?q=MMBT5550LT1G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM188C80E476ME05D (47uF)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/murata-electronics/GRM188C80E476ME05D/5877407</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/harvatek-corporation/B1911PG-20D000514U1930/15519992</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/Bourns/TC33X-1-102E?qs=4vvWAaIu%2Fq40JgQLR4YiJw%3D%3D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPC1002N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/ixys-integrated-circuits-division/CPC1002N/1025047</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/yageo/RC0603FR-132K49L/14008252</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-132K49L (2.5k)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microchip Direct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alibaba</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋月電子</t>
     <rPh sb="0" eb="2">
       <t>ｱｷﾂﾞｷ</t>
     </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
+    <rPh sb="2" eb="4">
+      <t>ﾃﾞﾝｼ</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seller 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seller 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCJ188R71H104KA12D (0.1uF)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLQEA201212T100K(LBR2012T100K)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7,C8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/81-GRM1885C2A160JA1D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P125B1103G0115SN001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen YOSO Connector Electronics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001S03TW001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF130102S1074S001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F243B110G1USNT01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiamen Jinbeili Electronics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen Amk Technology</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen Chuangqin Technology</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhejiang Jianfu Electronics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen best electronics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM1885C2A160JA01D (16pF)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1911PG-20D000514U1930</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBOX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH-321-1P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comfort Electronic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP9701A-E/TO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microchipdirect.com/product/MCP9701A-E%2FTO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDT101BXN100DF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-11343/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +597,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.0;[Red]&quot;¥&quot;\-#,##0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,15 +777,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +956,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1164,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,29 +1252,56 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1563,836 +1659,1079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.94140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>180</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>180</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:D33" si="0">B3*C3</f>
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <f>B5*C5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>37</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>12</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <f>13431/1100</f>
+        <v>12.21</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>12.21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21">
+        <v>45</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>30</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>7</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>7</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="21">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21">
+        <v>85</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>180</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2.65</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="0"/>
+        <v>2.65</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21">
+        <v>105</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21">
+        <v>6</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>250</v>
-      </c>
-      <c r="C2" s="7">
-        <v>310010005</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="C30" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="21">
+        <f>51000/1100</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="0"/>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="21">
+        <v>7.4</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21">
+        <v>23</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="21">
         <v>40</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7">
-        <v>306010020</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="D34" s="21">
+        <f>B34*C34</f>
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="E34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A35" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="21">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D35" s="21">
+        <f t="shared" ref="D35:D36" si="1">B35*C35</f>
+        <v>40</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="F35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A36" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21">
+        <v>400</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6">
-        <v>140</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6">
-        <v>227</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="6">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="6">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="C23" s="10">
-        <v>301010965</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C24" s="10">
-        <v>301011884</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6">
-        <v>168</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6">
-        <v>20</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="6">
-        <v>22</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6">
-        <v>70</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.8">
-      <c r="A32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="6">
-        <v>20</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="13">
-        <f>SUMPRODUCT(B2:B32,D2:D32)</f>
-        <v>1527.3000000000002</v>
+      <c r="D39" s="10">
+        <f>SUM(D2:D36)</f>
+        <v>1478.0906363636363</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E70487-5F20-4ABA-BDFB-A3F38ABF43F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F8D08-49AA-4F55-B115-AE8414F9CE35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="18270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name=" BOM Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' BOM Template'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' BOM Template'!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="148">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -65,9 +65,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
@@ -295,19 +292,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>AC0603FR-0710KL (10k)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>R239</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/yageo/AC0603FR-0710KL/2827814</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -588,14 +573,51 @@
     <t>https://akizukidenshi.com/catalog/g/gP-11343/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1,R6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RG1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCR2EF20,LM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/toshiba-semiconductor-and-storage/TCR2EF20-LM-CT/5977733</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRT188C80G105ME01J (1uF)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/murata-electronics/GRT188C80G105ME01J/13904968</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.0;[Red]&quot;¥&quot;\-#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1294,14 +1316,14 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1659,13 +1681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -1674,15 +1696,16 @@
     <col min="2" max="2" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.94140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="3"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1690,1038 +1713,1152 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>180</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <f>B2*C2</f>
         <v>180</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="E2" s="22">
+        <v>1050</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.8">
       <c r="A3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>18</v>
       </c>
-      <c r="D3" s="21">
-        <f t="shared" ref="D3:D33" si="0">B3*C3</f>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D34" si="0">B3*C3</f>
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.8">
+      <c r="E3" s="22">
+        <v>3100</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.8">
       <c r="A4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A5" s="20" t="s">
-        <v>116</v>
+      <c r="E4" s="22">
+        <v>3997</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A5" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <f>B5*C5</f>
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A6" s="14" t="s">
-        <v>5</v>
+      <c r="E5" s="22">
+        <v>2098</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A6" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="D6" s="20">
+        <f>B6*C6</f>
+        <v>4.2</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="21">
+      <c r="G6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <v>37</v>
+      </c>
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="E7" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C8" s="20">
         <v>12</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A8" s="17" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C9" s="20">
         <v>10</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="E9" s="22">
+        <v>3999</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A10" s="14" t="s">
+      <c r="E10" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C11" s="20">
         <v>10</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="E11" s="22">
+        <v>1099</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C12" s="20">
         <f>13431/1100</f>
         <v>12.21</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>12.21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="E12" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="H12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C13" s="20">
         <v>45</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="E13" s="22"/>
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C14" s="20">
         <v>8</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A14" s="11" t="s">
+      <c r="E14" s="22">
+        <v>2999</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C15" s="20">
         <v>30</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A15" s="11" t="s">
+      <c r="E15" s="22">
+        <v>1050</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C16" s="20">
         <v>7</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="E16" s="22"/>
+      <c r="F16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C17" s="20">
         <v>7</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="E17" s="22"/>
+      <c r="F17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C18" s="20">
         <v>6</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="E18" s="22"/>
+      <c r="F18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C19" s="20">
         <v>10</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="E19" s="22"/>
+      <c r="F19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C20" s="20">
         <v>85</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="20">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="E20" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C21" s="20">
         <v>180</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A21" s="14" t="s">
+      <c r="E21" s="22">
+        <v>1050</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="6">
+      <c r="H21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="D22" s="20">
+        <f>B22*C22</f>
+        <v>2.4</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="21">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D21" s="21">
-        <f t="shared" si="0"/>
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21">
+      <c r="C23" s="20">
         <v>2.65</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>2.65</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A23" s="15" t="s">
+      <c r="E23" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C24" s="20">
         <v>1.8</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="20">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A24" s="15" t="s">
+      <c r="E24" s="22">
+        <v>2499</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C25" s="20">
         <v>2.4</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="20">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A25" s="15" t="s">
+      <c r="E25" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C26" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20">
         <v>1.2</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D27" s="20">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="D26" s="21">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E27" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7" t="s">
+      <c r="H27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="D27" s="21">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A28" s="12" t="s">
-        <v>22</v>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A28" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
+        <v>9</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20">
         <v>105</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="20">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A29" s="13" t="s">
+      <c r="I29" s="8"/>
+      <c r="J29" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C30" s="20">
         <v>6</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="E30" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C31" s="20">
         <v>5.4</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D31" s="20">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="E31" s="22"/>
+      <c r="F31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C32" s="20">
         <f>51000/1100</f>
         <v>46.363636363636367</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="20">
         <f t="shared" si="0"/>
         <v>46.363636363636367</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A32" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="E32" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C33" s="20">
         <v>7.4</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="20">
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A33" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="E33" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="6">
         <v>1</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C34" s="20">
         <v>23</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="21">
-        <v>40</v>
-      </c>
-      <c r="D34" s="21">
-        <f>B34*C34</f>
-        <v>40</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A35" s="22" t="s">
-        <v>136</v>
+      <c r="E34" s="22">
+        <v>1099</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A35" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>40</v>
       </c>
-      <c r="D35" s="21">
-        <f t="shared" ref="D35:D36" si="1">B35*C35</f>
+      <c r="D35" s="20">
+        <f>B35*C35</f>
         <v>40</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A36" s="22" t="s">
-        <v>137</v>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A36" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
+        <v>40</v>
+      </c>
+      <c r="D36" s="20">
+        <f>B36*C36</f>
+        <v>40</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A37" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20">
         <v>400</v>
       </c>
-      <c r="D36" s="21">
-        <f t="shared" si="1"/>
+      <c r="D37" s="20">
+        <f>B37*C37</f>
         <v>400</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.8">
-      <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="10">
-        <f>SUM(D2:D36)</f>
-        <v>1478.0906363636363</v>
-      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="10">
+        <f>SUM(D2:D37)</f>
+        <v>1491.8236363636361</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D36">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D2:D37">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\OneDrive\デスクトップ\git_mlogger\board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\Documents\git_mlogger\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F8C20D-F0B2-49FD-8274-F27D7B39442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAE26C-EF9F-4B11-9BDD-1690A9AB2E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42440" yWindow="2790" windowWidth="28800" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39730" yWindow="1340" windowWidth="22960" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="費用集計" sheetId="4" r:id="rId1"/>
@@ -225,19 +225,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.mouser.jp/ProductDetail/81-GRM1885C2A160JA1D</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Shenzhen YOSO Connector Electronics</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Shenzhen best electronics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRM1885C2A160JA01D (16pF)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -343,10 +335,6 @@
   <si>
     <t>F101</t>
     <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/ja/products/detail/samsung-electro-mechanics/CL31A476MQHNNNE/3886825</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>https://www.digikey.jp/en/products/detail/vishay-beyschlag-draloric-bc-components/MFU0603FF01000P500/1202604</t>
@@ -573,6 +561,17 @@
   <si>
     <t>https://www.mouser.jp/ProductDetail/771-P3T1750DPZ</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/murata-electronics/GRM21BR61E106MA73L/4905533</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM1885C1H220GA01J (22pF)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/81-GRM1885C1H220GA1J</t>
   </si>
 </sst>
 </file>
@@ -1730,24 +1729,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CA3BD8-2779-45F6-AE49-6AE2C3B11080}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.71875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.27734375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="38.27734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.2265625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.26953125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="38.26953125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.6796875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
@@ -1756,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="24" t="s">
@@ -1769,26 +1768,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="21"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1801,21 +1800,21 @@
         <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="18">
         <v>4</v>
@@ -1828,21 +1827,21 @@
         <v>24.8</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -1865,12 +1864,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1887,18 +1886,18 @@
         <v>8</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -1915,18 +1914,18 @@
         <v>8</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="18">
         <v>1</v>
@@ -1940,17 +1939,17 @@
         <v>11.244375</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="18">
         <v>1</v>
@@ -1964,17 +1963,17 @@
         <v>6.7466249999999999</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -1991,18 +1990,18 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -2019,18 +2018,18 @@
         <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="18">
         <v>1</v>
@@ -2046,18 +2045,18 @@
         <v>39</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="18">
         <v>1</v>
@@ -2073,18 +2072,18 @@
         <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -2098,21 +2097,21 @@
         <v>20.226800000000004</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="18">
         <v>1</v>
@@ -2126,21 +2125,21 @@
         <v>324.5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -2154,21 +2153,21 @@
         <v>324.5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -2182,21 +2181,21 @@
         <v>9.4343370000000011</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -2213,18 +2212,18 @@
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -2246,12 +2245,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -2274,12 +2273,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2293,21 +2292,21 @@
         <v>59.95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -2321,21 +2320,21 @@
         <v>4162.4000000000005</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -2349,7 +2348,7 @@
         <v>22.495999999999999</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -2358,12 +2357,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -2383,15 +2382,15 @@
         <v>3</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="9">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -2411,15 +2410,15 @@
         <v>4</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="9">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -2442,12 +2441,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -2470,12 +2469,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="9">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -2498,12 +2497,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -2517,21 +2516,21 @@
         <v>30.030000000000005</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -2554,12 +2553,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -2582,12 +2581,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
@@ -2610,12 +2609,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="9">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -2628,21 +2627,21 @@
         <v>600</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="9">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
@@ -2665,12 +2664,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="9">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C35" s="6">
         <v>3</v>
@@ -2687,18 +2686,18 @@
         <v>11</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="9">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -2711,17 +2710,17 @@
         <v>10</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -2734,17 +2733,17 @@
         <v>6</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="9">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -2757,21 +2756,21 @@
         <v>5.82</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="9">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -2784,21 +2783,21 @@
         <v>5.82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="9">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -2821,19 +2820,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E42" s="14">
         <f>SUM(E3:E40)</f>
         <v>6719.307311999999</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.3" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\Documents\git_mlogger\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAE26C-EF9F-4B11-9BDD-1690A9AB2E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F722E0-AA91-463F-8836-42D768D1021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39730" yWindow="1340" windowWidth="22960" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="費用集計" sheetId="4" r:id="rId1"/>
+    <sheet name="BOM" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">費用集計!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$E$44</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="141">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -58,10 +57,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://file.elecfans.com/web1/M00/B9/B6/pIYBAF6G6rmAAUdzAEIJ-NYFW-Y765.pdf?filename=AM2320_ASAIR.pdf</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -85,10 +80,6 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>Aosong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -117,10 +108,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>AHT20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://japanese.alibaba.com/product-detail/micro-sd-card-socket-connectors-trans-flash-push-push-type-memory-tf-micro-sd-card-socket-connector-1600092970710.html?spm=a2700.galleryofferlist.normal_offer.d_title.1917328behAn7E&amp;s=p</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -271,21 +258,12 @@
     <t>R604</t>
   </si>
   <si>
-    <t>C402</t>
-  </si>
-  <si>
     <t>R601</t>
   </si>
   <si>
-    <t>IC901</t>
-  </si>
-  <si>
     <t>IC801</t>
   </si>
   <si>
-    <t>BATTERY +2.0 to +3.0V</t>
-  </si>
-  <si>
     <t>IC201</t>
   </si>
   <si>
@@ -305,10 +283,6 @@
   </si>
   <si>
     <t>C804, C805</t>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>Bourns</t>
@@ -365,22 +339,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-03086/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMFORTABLE ELECTRONIC CO., LTD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Others_Nanjing-Micro-One-Elec-ME2108A33M3G_C236804.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Others_Nanjing-Micro-One-Elec-ME2108C50M5G_C236790.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>XB3-24Z8CM-J</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -409,14 +367,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>cost</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>※税・送料込</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>R606, R802, RB01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -438,32 +388,6 @@
   </si>
   <si>
     <t>R607</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C401, C601, C701, C802, C803, C806, 
-C807, C901, CA01, CB01, CB02, CC01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>円/unit</t>
-    <rPh sb="0" eb="1">
-      <t>ｴﾝ</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>円</t>
-    <rPh sb="0" eb="1">
-      <t>ｴﾝ</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>計</t>
-    <rPh sb="0" eb="1">
-      <t>ｹｲ</t>
-    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -535,10 +459,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>XCL102D333CR-G</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>XCL102D503CR-G</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -547,22 +467,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>PNB01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3T1750DP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXP Semiconductors</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.mouser.jp/ProductDetail/771-P3T1750DPZ</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.digikey.jp/ja/products/detail/murata-electronics/GRM21BR61E106MA73L/4905533</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -571,19 +475,128 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>J101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same sky</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UJ2-MIBH-G-SMT-TR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/490-UJ2-MIBH-G-SMTTR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XCL103D333CR-G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/865-XCL103D333CR-G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keystone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/534-242</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/534-243</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/534-244</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHT40-AD1B-R2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensirion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHT40-BD1B-R2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/Toshiba/TCR2EF30LMCT?qs=d9Mk6%252B9NdtDUw9w7bJT4iA%3D%3D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC901</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/Sensirion/SHT40-AD1B-R2?qs=zW32dvEIR3scTT6A4VuzaQ%3D%3D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/Sensirion/SHT40-BD1B-R2?qs=ulEaXIWI0c%252BjgdkzNQkrGw%3D%3D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.mouser.jp/ProductDetail/81-GRM1885C1H220GA1J</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.jp/ProductDetail/Torex-Semiconductor/XCL102D503CR-G?qs=gt1LBUVyoHnRNGyHw0mt%252Bg%3D%3D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCR2EF30,LM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICB01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C401, C601, C701, C802, C803, C806, 
+C807, C901, CA01, CB01, CB02, CC01, C101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C402, C102</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -769,23 +782,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="ＭＳ ゴシック"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="34">
@@ -975,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1106,41 +1112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1298,7 +1269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,63 +1283,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,1124 +1668,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CA3BD8-2779-45F6-AE49-6AE2C3B11080}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.2265625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.26953125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="38.26953125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.6796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="4"/>
+    <col min="3" max="3" width="4.26953125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="38.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="5">
+        <v>242</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="5">
+        <v>243</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="5">
+        <v>244</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.5">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="8">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="21"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E40" si="0">C3*D3</f>
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="18">
-        <v>4</v>
-      </c>
-      <c r="D4" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="E4" s="19">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10">
-        <f>2.848*1.1</f>
-        <v>3.1328</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>37.593600000000002</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <f>5.022*1.1</f>
-        <v>5.5242000000000004</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>5.5242000000000004</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <f>3.4*1.1</f>
-        <v>3.74</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>7.48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <f>17991*(5/8)/1000</f>
-        <v>11.244375</v>
-      </c>
-      <c r="E8" s="19">
-        <f t="shared" si="0"/>
-        <v>11.244375</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <f>17991*(3/8)/1000</f>
-        <v>6.7466249999999999</v>
-      </c>
-      <c r="E9" s="19">
-        <f t="shared" si="0"/>
-        <v>6.7466249999999999</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <f>26.3*1.1</f>
-        <v>28.930000000000003</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>28.930000000000003</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <f>6.2*1.1</f>
-        <v>6.8200000000000012</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>6.8200000000000012</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="E12" s="19">
-        <f t="shared" ref="E12" si="1">C12*D12</f>
-        <v>6.6</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>7.9</v>
-      </c>
-      <c r="E13" s="19">
-        <f t="shared" ref="E13" si="2">C13*D13</f>
-        <v>7.9</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <f>18.388*1.1</f>
-        <v>20.226800000000004</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>20.226800000000004</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <f>295*1.1</f>
-        <v>324.5</v>
-      </c>
-      <c r="E15" s="19">
-        <f t="shared" si="0"/>
-        <v>324.5</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19">
-        <f>295*1.1</f>
-        <v>324.5</v>
-      </c>
-      <c r="E16" s="19">
-        <f t="shared" si="0"/>
-        <v>324.5</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <f>8.57667*1.1</f>
-        <v>9.4343370000000011</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>9.4343370000000011</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <f>290.8*1.1</f>
-        <v>319.88000000000005</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>319.88000000000005</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>90.446875000000006</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>90.446875000000006</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <f>219.2*1.1</f>
-        <v>241.12</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>241.12</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <f>54.5*1.1</f>
-        <v>59.95</v>
-      </c>
-      <c r="E21" s="10">
-        <f>C21*D21</f>
-        <v>59.95</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10">
-        <f>3784*1.1</f>
-        <v>4162.4000000000005</v>
-      </c>
-      <c r="E22" s="10">
-        <f>C22*D22</f>
-        <v>4162.4000000000005</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <f>11248/500</f>
-        <v>22.495999999999999</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>22.495999999999999</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
-        <f>55.8*1.1</f>
-        <v>61.38</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>61.38</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <f>127.058*1.1</f>
-        <v>139.76380000000003</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>139.76380000000003</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="9">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10">
-        <f>15.5*1.1</f>
-        <v>17.05</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>17.05</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A27" s="9">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <f>1.125*1.1</f>
-        <v>1.2375</v>
-      </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>1.2375</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A28" s="9">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10">
-        <f>0.562*1.1</f>
-        <v>0.61820000000000008</v>
-      </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>0.61820000000000008</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A29" s="9">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10">
-        <f>27.3*1.1</f>
-        <v>30.030000000000005</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>30.030000000000005</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A30" s="9">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10">
-        <f>0.562*1.1</f>
-        <v>0.61820000000000008</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.61820000000000008</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A31" s="9">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
-        <f>0.68*1.1</f>
-        <v>0.74800000000000011</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0.74800000000000011</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="9">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="8">
         <v>3</v>
       </c>
-      <c r="D32" s="10">
-        <f>0.562*1.1</f>
-        <v>0.61820000000000008</v>
-      </c>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8546000000000002</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="9">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>600</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A34" s="9">
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="6">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="10">
-        <f>2.042*1.1</f>
-        <v>2.2462</v>
-      </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>4.4923999999999999</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="9">
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="10">
-        <f>0.562*1.1</f>
-        <v>0.61820000000000008</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" ref="E35" si="3">C35*D35</f>
-        <v>1.8546000000000002</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="9">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10">
-        <v>10</v>
-      </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="9">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>6</v>
-      </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10">
-        <v>5.82</v>
-      </c>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
-        <v>5.82</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="9">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2.91</v>
-      </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>5.82</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="9">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
-        <f>66.752*1.1</f>
-        <v>73.427199999999999</v>
-      </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>73.427199999999999</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="14">
-        <f>SUM(E3:E40)</f>
-        <v>6719.307311999999</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.3" thickTop="1" x14ac:dyDescent="0.5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D46" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etoga\Documents\git_mlogger\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F722E0-AA91-463F-8836-42D768D1021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32636C22-0E13-41C6-BB30-853F8A94803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="4" r:id="rId1"/>
@@ -1671,10 +1671,10 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
